--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2014 (F14).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2014 (F14).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,399 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Banisher Priest</t>
+          <t>('Banisher Priest', ['{1}{W}{W}', 'Creature — Human Cleric', 'When Banisher Priest enters the battlefield, exile target creature an opponent controls until Banisher Priest leaves the battlefield. (That creature returns under its owner’s control.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{W}{W}</t>
+          <t>('Banishing Light', ['{2}{W}', 'Enchantment', 'When Banishing Light enters the battlefield, exile target nonland permanent an opponent controls until Banishing Light leaves the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Human Cleric</t>
+          <t>('Bile Blight', ['{B}{B}', 'Instant', 'Target creature and all other creatures with the same name as that creature get -3/-3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When Banisher Priest enters the battlefield, exile target creature an opponent controls until Banisher Priest leaves the battlefield. (That creature returns under its owner’s control.)</t>
+          <t>('Brain Maggot', ['{1}{B}', 'Enchantment Creature — Insect', 'When Brain Maggot enters the battlefield, target opponent reveals their hand and you choose a nonland card from it. Exile that card until Brain Maggot leaves the battlefield.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Dissolve', ['{1}{U}{U}', 'Instant', 'Counter target spell. Scry 1. (Look at the top card of your library. You may put that card on the bottom of your library.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Banishing Light</t>
+          <t>('Elvish Mystic', ['{G}', 'Creature — Elf Druid', '{T}: Add {G}.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{2}{W}</t>
+          <t>('Encroaching Wastes', ['Land', '{T}: Add {C}.', '{4}, {T}, Sacrifice Encroaching Wastes: Destroy target nonbasic land.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Enchantment</t>
+          <t>('Fanatic of Xenagos', ['{1}{R}{G}', 'Creature — Centaur Warrior', 'Trample', 'Tribute 1 (As this creature enters the battlefield, an opponent of your choice may put a +1/+1 counter on it.)', 'When Fanatic of Xenagos enters the battlefield, if tribute wasn’t paid, it gets +1/+1 and gains haste until end of turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>When Banishing Light enters the battlefield, exile target nonland permanent an opponent controls until Banishing Light leaves the battlefield.</t>
+          <t>('Magma Spray', ['{R}', 'Instant', 'Magma Spray deals 2 damage to target creature. If that creature would die this turn, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bile Blight</t>
+          <t>('Stoke the Flames', ['{2}{R}{R}', 'Instant', 'Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)', 'Stoke the Flames deals 4 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{B}{B}</t>
+          <t>('Tormented Hero', ['{B}', 'Creature — Human Warrior', 'Tormented Hero enters the battlefield tapped.', 'Heroic — Whenever you cast a spell that targets Tormented Hero, each opponent loses 1 life. You gain life equal to the life lost this way.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Target creature and all other creatures with the same name as that creature get -3/-3 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Brain Maggot</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Enchantment Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>When Brain Maggot enters the battlefield, target opponent reveals their hand and you choose a nonland card from it. Exile that card until Brain Maggot leaves the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Dissolve</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{1}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Counter target spell. Scry 1. (Look at the top card of your library. You may put that card on the bottom of your library.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Elvish Mystic</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Creature — Elf Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{T}: Add {G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Encroaching Wastes</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{4}, {T}, Sacrifice Encroaching Wastes: Destroy target nonbasic land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Fanatic of Xenagos</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{1}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Creature — Centaur Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tribute 1 (As this creature enters the battlefield, an opponent of your choice may put a +1/+1 counter on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>When Fanatic of Xenagos enters the battlefield, if tribute wasn’t paid, it gets +1/+1 and gains haste until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Magma Spray</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Magma Spray deals 2 damage to target creature. If that creature would die this turn, exile it instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Stoke the Flames</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>{2}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Convoke (Your creatures can help cast this spell. Each creature you tap while casting this spell pays for {1} or one mana of that creature’s color.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Stoke the Flames deals 4 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Tormented Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Creature — Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Tormented Hero enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Heroic — Whenever you cast a spell that targets Tormented Hero, each opponent loses 1 life. You gain life equal to the life lost this way.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Warleader's Helix</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>{2}{R}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Warleader’s Helix deals 4 damage to any target and you gain 4 life.</t>
+          <t>("Warleader's Helix", ['{2}{R}{W}', 'Instant', 'Warleader’s Helix deals 4 damage to any target and you gain 4 life.'])</t>
         </is>
       </c>
     </row>
